--- a/data/cepea-consulta-soja-parana.reparado.xlsx
+++ b/data/cepea-consulta-soja-parana.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71648FF1-912A-472A-8655-72E9458A41A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{353A2CFF-78D7-40E4-B751-E22715BA499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1091">
   <si>
     <t>Soja | INDICADOR DA SOJA CEPEA/ESALQ - PARANÁ</t>
   </si>
@@ -3265,6 +3265,45 @@
   </si>
   <si>
     <t>134,48</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>134,25</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>133,92</t>
+  </si>
+  <si>
+    <t>24,59</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>134,41</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>135,04</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>135,11</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>134,75</t>
   </si>
 </sst>
 </file>
@@ -3716,10 +3755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J426"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420:C420"/>
+      <selection activeCell="A426" sqref="A426:C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8360,6 +8399,72 @@
       </c>
       <c r="C420" s="3" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-soja-parana.reparado.xlsx
+++ b/data/cepea-consulta-soja-parana.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8049FC77-5097-4918-9F70-2DB1B4A30213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4D64DB-B077-4A8A-8A6B-9BC0C61A9259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1114">
   <si>
     <t>Soja | INDICADOR DA SOJA CEPEA/ESALQ - PARANÁ</t>
   </si>
@@ -3340,6 +3340,39 @@
   </si>
   <si>
     <t>25,21</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>135,13</t>
+  </si>
+  <si>
+    <t>25,41</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>134,12</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>134,18</t>
+  </si>
+  <si>
+    <t>25,27</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>133,69</t>
   </si>
 </sst>
 </file>
@@ -3791,10 +3824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J431"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:C431"/>
+      <selection activeCell="A436" sqref="A436:C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8556,6 +8589,61 @@
       </c>
       <c r="C431" s="3" t="s">
         <v>1102</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-soja-parana.reparado.xlsx
+++ b/data/cepea-consulta-soja-parana.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{058349E3-CA0B-4C6E-9B41-B03CA423CA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4F199B-7BD2-4BC7-AA50-8866EC523992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
